--- a/diagnostics_plots/diagnostics_results.xlsx
+++ b/diagnostics_plots/diagnostics_results.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.0009811109374028013</v>
+        <v>-0.01826323110202846</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0543568380364959</v>
+        <v>0.9826393846830302</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.25041126947647</v>
+        <v>-4.39275848435103</v>
       </c>
       <c r="E2" t="n">
-        <v>0.112871445636905</v>
+        <v>2.042986564144792</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.8154920155964753</v>
+        <v>-0.7114458636743382</v>
       </c>
       <c r="G2" t="n">
-        <v>3.022751346201646</v>
+        <v>2.225589065839782</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009805124665914881</v>
+        <v>0.0007645290829910302</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0.436410659880665</v>
       </c>
       <c r="J2" t="n">
-        <v>1.265802542869786</v>
+        <v>1.130630940556499</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001144124038069228</v>
+        <v>1.60277389766494e-07</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0008727183088978649</v>
+        <v>0.002803927456123335</v>
       </c>
       <c r="M2" t="n">
-        <v>24.01634756442093</v>
+        <v>24.0317582440992</v>
       </c>
       <c r="N2" t="n">
-        <v>23.39220655729079</v>
+        <v>23.42966264507794</v>
       </c>
       <c r="O2" t="n">
-        <v>24.65714163913695</v>
+        <v>24.64932649912292</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.001523361719070621</v>
+        <v>-0.03029595207641897</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06751283902268154</v>
+        <v>1.383004879170442</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2704569011733433</v>
+        <v>-5.640408279622426</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3394659606199358</v>
+        <v>7.125165549156054</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5424910810484357</v>
+        <v>0.4679121322862519</v>
       </c>
       <c r="G3" t="n">
-        <v>7.373368334448649</v>
+        <v>7.225593029269941</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08233414498178779</v>
+        <v>0.05322541909867877</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>5.03724395528593e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9944112970752275</v>
+        <v>0.9520357280252342</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07413045633357028</v>
+        <v>0.01442972973850082</v>
       </c>
       <c r="L3" t="n">
-        <v>1.169805432346838e-06</v>
+        <v>5.667026374556035e-07</v>
       </c>
       <c r="M3" t="n">
-        <v>11.42111246418474</v>
+        <v>11.43144901117667</v>
       </c>
       <c r="N3" t="n">
-        <v>10.52197341489566</v>
+        <v>10.52108915524121</v>
       </c>
       <c r="O3" t="n">
-        <v>12.39708605753492</v>
+        <v>12.42057971061229</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.002391674639303294</v>
+        <v>-0.04017864546916282</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08459670526876778</v>
+        <v>1.532656360878771</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1995164008993824</v>
+        <v>-3.876760707166097</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3046548719933914</v>
+        <v>5.835333761873049</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3812782494975413</v>
+        <v>0.3873319885409055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9066691888107843</v>
+        <v>1.32202219557075</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003696227573686798</v>
+        <v>0.0007875194029758885</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8519525633479024</v>
+        <v>0.8626148382101905</v>
       </c>
       <c r="K4" t="n">
-        <v>1.531130508195225e-08</v>
+        <v>8.605465636455148e-10</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0909104132314305</v>
+        <v>0.03742614294781015</v>
       </c>
       <c r="M4" t="n">
-        <v>5.363885873909526</v>
+        <v>5.365808670784342</v>
       </c>
       <c r="N4" t="n">
-        <v>4.977633170525674</v>
+        <v>4.980596159310264</v>
       </c>
       <c r="O4" t="n">
-        <v>5.780110884564782</v>
+        <v>5.78081453916787</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001288302633385022</v>
+        <v>-0.02325140714297254</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06214491624939968</v>
+        <v>1.121189232478837</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1488709474625211</v>
+        <v>-2.640608132136125</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1655952155255276</v>
+        <v>2.939929088187708</v>
       </c>
       <c r="F5" t="n">
-        <v>0.151882610117533</v>
+        <v>0.1183850693177807</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3587071678321672</v>
+        <v>-0.5626259227735115</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05077216222760059</v>
+        <v>0.03903027297625253</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0.009186125291129499</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9891094456023973</v>
+        <v>0.9880803789329855</v>
       </c>
       <c r="K5" t="n">
-        <v>5.114890159711661e-11</v>
+        <v>6.380927099471565e-10</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5278418681277036</v>
+        <v>0.2121330002904008</v>
       </c>
       <c r="M5" t="n">
-        <v>5.587569046808483</v>
+        <v>5.585501576877372</v>
       </c>
       <c r="N5" t="n">
-        <v>5.356983991166913</v>
+        <v>5.35176341126747</v>
       </c>
       <c r="O5" t="n">
-        <v>5.828079364122084</v>
+        <v>5.829448252442639</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.002537518668490928</v>
+        <v>-0.03544880984631753</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08731428046934278</v>
+        <v>1.254641566490597</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3102609799131001</v>
+        <v>-4.600628468372605</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1850599663153423</v>
+        <v>2.794978009296771</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1948330055340223</v>
+        <v>-0.2267668131688624</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5755576641052564</v>
+        <v>0.8056087046200622</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4722558601323643</v>
+        <v>0.3039261120476587</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2.489870643807013e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8263000813873773</v>
+        <v>0.8181963584906322</v>
       </c>
       <c r="K6" t="n">
-        <v>2.249850834925326e-22</v>
+        <v>1.026204605077818e-22</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3413249113590139</v>
+        <v>0.3028605377448993</v>
       </c>
       <c r="M6" t="n">
-        <v>10.64121994916061</v>
+        <v>10.66177127902857</v>
       </c>
       <c r="N6" t="n">
-        <v>9.83203272538274</v>
+        <v>9.840680809547653</v>
       </c>
       <c r="O6" t="n">
-        <v>11.51700418104597</v>
+        <v>11.55137220750316</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.003737092098778559</v>
+        <v>-0.04382090528107291</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1055805995237952</v>
+        <v>1.245761672062962</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2689027156861554</v>
+        <v>-3.257358529865598</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3759026728207768</v>
+        <v>4.295561381434368</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6768148130864152</v>
+        <v>0.5488757090113225</v>
       </c>
       <c r="G7" t="n">
-        <v>1.453851098902352</v>
+        <v>0.9480759050694929</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01091075857806741</v>
+        <v>0.00642789908831664</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>6.223607749267224e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7753986848930938</v>
+        <v>0.742474602301843</v>
       </c>
       <c r="K7" t="n">
-        <v>1.676035948428529e-24</v>
+        <v>1.417294209166032e-27</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02025786913254937</v>
+        <v>0.06554819525478191</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2595189069325569</v>
+        <v>0.2599715093565305</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2287637864161986</v>
+        <v>0.229143701533319</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2944087615901609</v>
+        <v>0.2949467309154264</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.001951993751331072</v>
+        <v>-0.03330052884810956</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07668404273955666</v>
+        <v>1.359763759955901</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3204907342049613</v>
+        <v>-5.863022169465559</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1670247591822604</v>
+        <v>3.10216798942466</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6281940481313636</v>
+        <v>-0.6320568296909684</v>
       </c>
       <c r="G8" t="n">
-        <v>2.119899361516575</v>
+        <v>2.303863619888101</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1426686430923842</v>
+        <v>0.06523960686139221</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>5.624204735266147e-08</v>
       </c>
       <c r="J8" t="n">
-        <v>1.091350755746758</v>
+        <v>1.0884540982985</v>
       </c>
       <c r="K8" t="n">
-        <v>5.125919723856461e-13</v>
+        <v>2.932689677292757e-14</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01382269888036631</v>
+        <v>0.006982132349433313</v>
       </c>
       <c r="M8" t="n">
-        <v>0.712954151655929</v>
+        <v>0.7134317257705455</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6724345855996563</v>
+        <v>0.6718128544999703</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7559153458921749</v>
+        <v>0.7576288901390191</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.004192875071344782</v>
+        <v>-0.06595281813746115</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1125882579530517</v>
+        <v>1.831368557925425</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4124413106784557</v>
+        <v>-7.068398169649039</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2858534190736497</v>
+        <v>4.840078570390868</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7964031208505523</v>
+        <v>-0.855595679574217</v>
       </c>
       <c r="G9" t="n">
-        <v>1.372321697921778</v>
+        <v>1.735614844676266</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0007312588350056356</v>
+        <v>0.0001729547387266205</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9662373504982534</v>
+        <v>0.9520346051278211</v>
       </c>
       <c r="K9" t="n">
-        <v>8.171524928081089e-14</v>
+        <v>1.854166338275856e-15</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000554464512997865</v>
+        <v>8.76234337604501e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.594854956895304</v>
+        <v>0.5950335802432145</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5561475077768537</v>
+        <v>0.5565429215192903</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6362564154200836</v>
+        <v>0.6361862633173132</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.00167515107782762</v>
+        <v>-0.02677050590185231</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07102650839216423</v>
+        <v>1.175744473653722</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3285425584092826</v>
+        <v>-5.601956706765</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1865955015146875</v>
+        <v>3.218016953682232</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6078997782860432</v>
+        <v>-0.6123506091428452</v>
       </c>
       <c r="G10" t="n">
-        <v>4.005581041188379</v>
+        <v>4.010995437566506</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07048406409212932</v>
+        <v>0.04049500744373022</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0.001998971789768156</v>
       </c>
       <c r="J10" t="n">
-        <v>1.201649284061878</v>
+        <v>1.147256669079903</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00377013124626823</v>
+        <v>6.579564635074442e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002008965414511008</v>
+        <v>0.0001437298303894966</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2629065436023725</v>
+        <v>0.2629923360687634</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2463262479766528</v>
+        <v>0.2464451615116112</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2806028640337894</v>
+        <v>0.2806505447567763</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.001833647801090755</v>
+        <v>-0.02654094308338512</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07409025684657033</v>
+        <v>1.318213528485582</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.257509979628892</v>
+        <v>-4.988443605271979</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3056223115815491</v>
+        <v>5.156645897593171</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4142804834849785</v>
+        <v>0.2406932374477504</v>
       </c>
       <c r="G11" t="n">
-        <v>3.711701334770922</v>
+        <v>3.206421518147792</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002716646861658343</v>
+        <v>0.003176824354742507</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>1.429115904505451e-07</v>
       </c>
       <c r="J11" t="n">
-        <v>1.008567205419546</v>
+        <v>1.065811796985765</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0007467529114953273</v>
+        <v>0.0002548176918218574</v>
       </c>
       <c r="L11" t="n">
-        <v>8.527306819828187e-05</v>
+        <v>0.0004674627214102582</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06894498476523994</v>
+        <v>0.06871412692761329</v>
       </c>
       <c r="N11" t="n">
-        <v>0.06229419344848144</v>
+        <v>0.06245224486320335</v>
       </c>
       <c r="O11" t="n">
-        <v>0.07630584266590328</v>
+        <v>0.07560386739926653</v>
       </c>
     </row>
     <row r="12">
@@ -1002,46 +1002,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0008965722383968521</v>
+        <v>-0.01655457148027956</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0519002923664481</v>
+        <v>1.102208028302038</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2082396998654669</v>
+        <v>-4.465965696818451</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1515962397857775</v>
+        <v>3.155128727873384</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2629177489060949</v>
+        <v>-0.2592790716929455</v>
       </c>
       <c r="G12" t="n">
-        <v>1.757475870650903</v>
+        <v>1.487900519459402</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0197894216377507</v>
+        <v>0.0200599048354847</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0.02303905703844644</v>
       </c>
       <c r="J12" t="n">
-        <v>1.281086685356416</v>
+        <v>1.249908920067508</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003875540121640664</v>
+        <v>0.0001857687352268457</v>
       </c>
       <c r="L12" t="n">
-        <v>0.007355549578438774</v>
+        <v>0.01368010387716044</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4639580617854757</v>
+        <v>0.4636733120359737</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4459219556865591</v>
+        <v>0.4457127095215158</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4827236702537263</v>
+        <v>0.4823576615645759</v>
       </c>
     </row>
     <row r="13">
@@ -1051,46 +1051,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.001121386826873521</v>
+        <v>-0.02148595520095248</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05807488511172563</v>
+        <v>1.106062008435703</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.254817616434447</v>
+        <v>-4.805809207206539</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1115191000921279</v>
+        <v>2.170405330564763</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.499306161661662</v>
+        <v>-0.4553036466822096</v>
       </c>
       <c r="G13" t="n">
-        <v>2.231852460616297</v>
+        <v>1.714041975761713</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03621650379263872</v>
+        <v>0.03953950434075763</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0.02390773039945093</v>
       </c>
       <c r="J13" t="n">
-        <v>1.00157571004304</v>
+        <v>0.948135836005815</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0004327804130468259</v>
+        <v>7.389524213593849e-07</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0003287888641279126</v>
+        <v>0.000823339131625459</v>
       </c>
       <c r="M13" t="n">
-        <v>3.662851791288241</v>
+        <v>3.664655073384121</v>
       </c>
       <c r="N13" t="n">
-        <v>3.500320414941396</v>
+        <v>3.503387727080372</v>
       </c>
       <c r="O13" t="n">
-        <v>3.832930033397558</v>
+        <v>3.83334585066664</v>
       </c>
     </row>
     <row r="14">
@@ -1100,46 +1100,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0009407967203699932</v>
+        <v>-0.01880754928364788</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05313221792673219</v>
+        <v>1.095059319020325</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2140290827599205</v>
+        <v>-4.475344338412787</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1820714070155489</v>
+        <v>3.875840694318431</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02142395390031597</v>
+        <v>-0.03663271877713174</v>
       </c>
       <c r="G14" t="n">
-        <v>2.763204481239488</v>
+        <v>2.622145387879804</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02119105638406371</v>
+        <v>0.01243312250406129</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0.02528631327847874</v>
       </c>
       <c r="J14" t="n">
-        <v>1.284497743329981</v>
+        <v>1.237297169901697</v>
       </c>
       <c r="K14" t="n">
-        <v>1.873424724431334e-06</v>
+        <v>2.310954593049932e-08</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004115535349154638</v>
+        <v>0.006595937298413504</v>
       </c>
       <c r="M14" t="n">
-        <v>4.300129937662687</v>
+        <v>4.301765034404673</v>
       </c>
       <c r="N14" t="n">
-        <v>4.179306919608151</v>
+        <v>4.184095796292002</v>
       </c>
       <c r="O14" t="n">
-        <v>4.424445927631613</v>
+        <v>4.422743482026907</v>
       </c>
     </row>
     <row r="15">
@@ -1149,46 +1149,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001855776012981423</v>
+        <v>-0.03105870820959822</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0743731018807807</v>
+        <v>1.301421231963948</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1542663332262784</v>
+        <v>-2.75757037817916</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3368567960596116</v>
+        <v>5.999898454250217</v>
       </c>
       <c r="F15" t="n">
-        <v>1.090724155647049</v>
+        <v>1.032388797505195</v>
       </c>
       <c r="G15" t="n">
-        <v>3.334185320274472</v>
+        <v>3.143364563972882</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1432081405384095</v>
+        <v>0.1070792365366116</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>8.113772687057264e-08</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9024876208328096</v>
+        <v>0.884457365323939</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01044830873061673</v>
+        <v>0.0005620887572302592</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004315460611335424</v>
+        <v>0.0004167539380658026</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8662344231258834</v>
+        <v>0.8662714033921668</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8027717487003052</v>
+        <v>0.8027575132605852</v>
       </c>
       <c r="O15" t="n">
-        <v>0.9347141040066184</v>
+        <v>0.9348104900158516</v>
       </c>
     </row>
     <row r="16">
@@ -1198,46 +1198,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0008688471857323738</v>
+        <v>-0.0171220513330381</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05114245558480181</v>
+        <v>1.032575113670937</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2429123204004292</v>
+        <v>-4.931772645592038</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1171508227355199</v>
+        <v>2.438457937112157</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7703676008523098</v>
+        <v>-0.6846942161887539</v>
       </c>
       <c r="G16" t="n">
-        <v>3.716647917972473</v>
+        <v>3.282576437445911</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01118695508802739</v>
+        <v>0.005067020828246594</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0.1825950782664085</v>
       </c>
       <c r="J16" t="n">
-        <v>1.363154791290397</v>
+        <v>1.302130080581972</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01193868645861371</v>
+        <v>0.0003640059742283136</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002247085381977906</v>
+        <v>0.0002378665670032319</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6056558809678577</v>
+        <v>0.606043049090066</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5882511613135409</v>
+        <v>0.5888667861975406</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6235755579842116</v>
+        <v>0.6237203149494221</v>
       </c>
     </row>
     <row r="17">
@@ -1247,46 +1247,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.000844166678895503</v>
+        <v>-0.01826864653641791</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05038414584115354</v>
+        <v>1.090383743179026</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2365040275953582</v>
+        <v>-5.088350891306335</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1329974933825522</v>
+        <v>2.937380873793336</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5371308248519492</v>
+        <v>-0.4898662704049352</v>
       </c>
       <c r="G17" t="n">
-        <v>3.909397681840411</v>
+        <v>3.262685697802854</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02616015936597346</v>
+        <v>0.02296910544022162</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0.0381183193857223</v>
       </c>
       <c r="J17" t="n">
-        <v>1.217957692403875</v>
+        <v>1.14421173473669</v>
       </c>
       <c r="K17" t="n">
-        <v>0.000257215545144667</v>
+        <v>6.354233422379444e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>8.75624582174069e-05</v>
+        <v>0.0003947229899670635</v>
       </c>
       <c r="M17" t="n">
-        <v>11.73415666527566</v>
+        <v>11.73938767699414</v>
       </c>
       <c r="N17" t="n">
-        <v>11.37377775427547</v>
+        <v>11.37848929732894</v>
       </c>
       <c r="O17" t="n">
-        <v>12.10595420624203</v>
+        <v>12.111732887345</v>
       </c>
     </row>
   </sheetData>

--- a/diagnostics_plots/diagnostics_results.xlsx
+++ b/diagnostics_plots/diagnostics_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01826323110202846</v>
+        <v>-0.01792799448686878</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9826393846830302</v>
+        <v>0.9974868299434683</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.39275848435103</v>
+        <v>-4.558047586702233</v>
       </c>
       <c r="E2" t="n">
-        <v>2.042986564144792</v>
+        <v>2.063330415344418</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7114458636743382</v>
+        <v>-0.7844726127945557</v>
       </c>
       <c r="G2" t="n">
-        <v>2.225589065839782</v>
+        <v>2.870475541420968</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007645290829910302</v>
+        <v>0.001073398162103352</v>
       </c>
       <c r="I2" t="n">
-        <v>0.436410659880665</v>
+        <v>0.3394464380437416</v>
       </c>
       <c r="J2" t="n">
-        <v>1.130630940556499</v>
+        <v>1.253615107325677</v>
       </c>
       <c r="K2" t="n">
-        <v>1.60277389766494e-07</v>
+        <v>0.0012317940361321</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002803927456123335</v>
+        <v>0.0009333133410336916</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0317582440992</v>
+        <v>24.70470667325907</v>
       </c>
       <c r="N2" t="n">
-        <v>23.42966264507794</v>
+        <v>24.02544833918019</v>
       </c>
       <c r="O2" t="n">
-        <v>24.64932649912292</v>
+        <v>25.40316930595923</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.03029595207641897</v>
+        <v>-0.03188250724966488</v>
       </c>
       <c r="C3" t="n">
-        <v>1.383004879170442</v>
+        <v>1.412491444869042</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.640408279622426</v>
+        <v>-5.642220744277191</v>
       </c>
       <c r="E3" t="n">
-        <v>7.125165549156054</v>
+        <v>7.332752780252472</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4679121322862519</v>
+        <v>0.6737703202951771</v>
       </c>
       <c r="G3" t="n">
-        <v>7.225593029269941</v>
+        <v>8.208140814841141</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05322541909867877</v>
+        <v>0.09057521161326058</v>
       </c>
       <c r="I3" t="n">
-        <v>5.03724395528593e-10</v>
+        <v>1.634136159722743e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9520357280252342</v>
+        <v>1.003483302587721</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01442972973850082</v>
+        <v>0.1291453550535961</v>
       </c>
       <c r="L3" t="n">
-        <v>5.667026374556035e-07</v>
+        <v>3.581676909307485e-07</v>
       </c>
       <c r="M3" t="n">
-        <v>11.43144901117667</v>
+        <v>11.76094531262774</v>
       </c>
       <c r="N3" t="n">
-        <v>10.52108915524121</v>
+        <v>10.82059944087482</v>
       </c>
       <c r="O3" t="n">
-        <v>12.42057971061229</v>
+        <v>12.78301035006592</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04017864546916282</v>
+        <v>-0.03652997789923258</v>
       </c>
       <c r="C4" t="n">
-        <v>1.532656360878771</v>
+        <v>1.299595471819949</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.876760707166097</v>
+        <v>-3.040465054099983</v>
       </c>
       <c r="E4" t="n">
-        <v>5.835333761873049</v>
+        <v>4.672380090028386</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3873319885409055</v>
+        <v>0.3863022007559735</v>
       </c>
       <c r="G4" t="n">
-        <v>1.32202219557075</v>
+        <v>0.8672665398561659</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007875194029758885</v>
+        <v>0.003732763189428549</v>
       </c>
       <c r="I4" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.060458349577686e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8626148382101905</v>
+        <v>0.8300272800752442</v>
       </c>
       <c r="K4" t="n">
-        <v>8.605465636455148e-10</v>
+        <v>1.049979978829325e-08</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03742614294781015</v>
+        <v>0.09616559788409784</v>
       </c>
       <c r="M4" t="n">
-        <v>5.365808670784342</v>
+        <v>5.491227774060237</v>
       </c>
       <c r="N4" t="n">
-        <v>4.980596159310264</v>
+        <v>5.091025202703913</v>
       </c>
       <c r="O4" t="n">
-        <v>5.78081453916787</v>
+        <v>5.922890040024857</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02325140714297254</v>
+        <v>-0.02353783971595957</v>
       </c>
       <c r="C5" t="n">
-        <v>1.121189232478837</v>
+        <v>1.155313423527933</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.640608132136125</v>
+        <v>-2.775931125287209</v>
       </c>
       <c r="E5" t="n">
-        <v>2.939929088187708</v>
+        <v>3.051409099643031</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1183850693177807</v>
+        <v>0.1374514173480634</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.5626259227735115</v>
+        <v>-0.3790752917009304</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03903027297625253</v>
+        <v>0.04341780649101473</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009186125291129499</v>
+        <v>0.003010260844859114</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9880803789329855</v>
+        <v>0.9899399359827595</v>
       </c>
       <c r="K5" t="n">
-        <v>6.380927099471565e-10</v>
+        <v>8.787510884783137e-12</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2121330002904008</v>
+        <v>0.4825900102807197</v>
       </c>
       <c r="M5" t="n">
-        <v>5.585501576877372</v>
+        <v>5.744603295637656</v>
       </c>
       <c r="N5" t="n">
-        <v>5.35176341126747</v>
+        <v>5.508708245966845</v>
       </c>
       <c r="O5" t="n">
-        <v>5.829448252442639</v>
+        <v>5.990599892163837</v>
       </c>
     </row>
     <row r="6">
@@ -708,585 +708,634 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.03544880984631753</v>
+        <v>-0.03470876770778158</v>
       </c>
       <c r="C6" t="n">
-        <v>1.254641566490597</v>
+        <v>1.187558526182789</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.600628468372605</v>
+        <v>-4.23067829708229</v>
       </c>
       <c r="E6" t="n">
-        <v>2.794978009296771</v>
+        <v>2.511737843983959</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2267668131688624</v>
+        <v>-0.1990168128499561</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8056087046200622</v>
+        <v>0.6040326148717163</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3039261120476587</v>
+        <v>0.4713548474721821</v>
       </c>
       <c r="I6" t="n">
-        <v>2.489870643807013e-05</v>
+        <v>0.001182916456475613</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8181963584906322</v>
+        <v>0.8219886899910041</v>
       </c>
       <c r="K6" t="n">
-        <v>1.026204605077818e-22</v>
+        <v>5.973964112693152e-23</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3028605377448993</v>
+        <v>0.3377061067756018</v>
       </c>
       <c r="M6" t="n">
-        <v>10.66177127902857</v>
+        <v>10.81447699973163</v>
       </c>
       <c r="N6" t="n">
-        <v>9.840680809547653</v>
+        <v>9.983935582970927</v>
       </c>
       <c r="O6" t="n">
-        <v>11.55137220750316</v>
+        <v>11.71410931148282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>F99_F99</t>
+          <t>F99_F99_nao_especificado</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.04382090528107291</v>
+        <v>-0.0466954305064931</v>
       </c>
       <c r="C7" t="n">
-        <v>1.245761672062962</v>
+        <v>1.351194110570086</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.257358529865598</v>
+        <v>-3.360118105132961</v>
       </c>
       <c r="E7" t="n">
-        <v>4.295561381434368</v>
+        <v>4.647107943891639</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5488757090113225</v>
+        <v>0.6695471568561412</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9480759050694929</v>
+        <v>1.250243162949191</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00642789908831664</v>
+        <v>0.01063368519153561</v>
       </c>
       <c r="I7" t="n">
-        <v>6.223607749267224e-06</v>
+        <v>1.052606957152591e-08</v>
       </c>
       <c r="J7" t="n">
-        <v>0.742474602301843</v>
+        <v>0.7801310651865491</v>
       </c>
       <c r="K7" t="n">
-        <v>1.417294209166032e-27</v>
+        <v>9.209779455364778e-25</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06554819525478191</v>
+        <v>0.02589604035749075</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2599715093565305</v>
+        <v>0.1297290498866709</v>
       </c>
       <c r="N7" t="n">
-        <v>0.229143701533319</v>
+        <v>0.1145490302795485</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2949467309154264</v>
+        <v>0.1469207233219424</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>F90_F98</t>
+          <t>F90_F98_comportamento</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03330052884810956</v>
+        <v>-0.02898408293238081</v>
       </c>
       <c r="C8" t="n">
-        <v>1.359763759955901</v>
+        <v>1.136705388421409</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.863022169465559</v>
+        <v>-4.755996000933685</v>
       </c>
       <c r="E8" t="n">
-        <v>3.10216798942466</v>
+        <v>2.475619768301459</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6320568296909684</v>
+        <v>-0.6290927143241668</v>
       </c>
       <c r="G8" t="n">
-        <v>2.303863619888101</v>
+        <v>2.130419041392838</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06523960686139221</v>
+        <v>0.1407502761345326</v>
       </c>
       <c r="I8" t="n">
-        <v>5.624204735266147e-08</v>
+        <v>0.01266720021403323</v>
       </c>
       <c r="J8" t="n">
-        <v>1.0884540982985</v>
+        <v>1.092076592575162</v>
       </c>
       <c r="K8" t="n">
-        <v>2.932689677292757e-14</v>
+        <v>5.115724143829816e-13</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006982132349433313</v>
+        <v>0.01364974422688222</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7134317257705455</v>
+        <v>0.713169472328755</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6718128544999703</v>
+        <v>0.6724132805700425</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7576288901390191</v>
+        <v>0.7563959709875109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>F80_F89</t>
+          <t>F80_F89_desenvolvimento</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.06595281813746115</v>
+        <v>-0.05898805461234696</v>
       </c>
       <c r="C9" t="n">
-        <v>1.831368557925425</v>
+        <v>1.570818965499819</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.068398169649039</v>
+        <v>-5.77043652794581</v>
       </c>
       <c r="E9" t="n">
-        <v>4.840078570390868</v>
+        <v>3.990348384220146</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.855595679574217</v>
+        <v>-0.7985376593625874</v>
       </c>
       <c r="G9" t="n">
-        <v>1.735614844676266</v>
+        <v>1.380622029819596</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0001729547387266205</v>
+        <v>0.0007827626551942335</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>9.814371537686384e-14</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9520346051278211</v>
+        <v>0.9683234617822982</v>
       </c>
       <c r="K9" t="n">
-        <v>1.854166338275856e-15</v>
+        <v>8.198369261675125e-14</v>
       </c>
       <c r="L9" t="n">
-        <v>8.76234337604501e-05</v>
+        <v>0.0005470661807442437</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5950335802432145</v>
+        <v>0.5949673678982401</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5565429215192903</v>
+        <v>0.5562966420730172</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6361862633173132</v>
+        <v>0.6363262728760046</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>F70_F79</t>
+          <t>F70_F79_retardado</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.02677050590185231</v>
+        <v>-0.02620895479231635</v>
       </c>
       <c r="C10" t="n">
-        <v>1.175744473653722</v>
+        <v>1.122496313570058</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.601956706765</v>
+        <v>-5.223990842111149</v>
       </c>
       <c r="E10" t="n">
-        <v>3.218016953682232</v>
+        <v>2.970482034544549</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6123506091428452</v>
+        <v>-0.6289119335276004</v>
       </c>
       <c r="G10" t="n">
-        <v>4.010995437566506</v>
+        <v>4.087211821293528</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04049500744373022</v>
+        <v>0.06838708863967372</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001998971789768156</v>
+        <v>0.01867826893681068</v>
       </c>
       <c r="J10" t="n">
-        <v>1.147256669079903</v>
+        <v>1.210157518711104</v>
       </c>
       <c r="K10" t="n">
-        <v>6.579564635074442e-06</v>
+        <v>0.003944576176019568</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001437298303894966</v>
+        <v>0.0001891843012030884</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2629923360687634</v>
+        <v>0.2628996508429042</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2464451615116112</v>
+        <v>0.2464391793486502</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2806505447567763</v>
+        <v>0.2804595705763923</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>F60_F69</t>
+          <t>F60_F69_personalidade</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02654094308338512</v>
+        <v>-0.02716280534115468</v>
       </c>
       <c r="C11" t="n">
-        <v>1.318213528485582</v>
+        <v>1.26246058624479</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.988443605271979</v>
+        <v>-4.710073417942591</v>
       </c>
       <c r="E11" t="n">
-        <v>5.156645897593171</v>
+        <v>4.782748650813896</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2406932374477504</v>
+        <v>0.153556921399788</v>
       </c>
       <c r="G11" t="n">
-        <v>3.206421518147792</v>
+        <v>3.164777791789954</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003176824354742507</v>
+        <v>0.005321941847992875</v>
       </c>
       <c r="I11" t="n">
-        <v>1.429115904505451e-07</v>
+        <v>1.547289440517741e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>1.065811796985765</v>
+        <v>1.081589892667073</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0002548176918218574</v>
+        <v>0.001551031068925343</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004674627214102582</v>
+        <v>0.0006254710557686861</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06871412692761329</v>
+        <v>0.06872223156207535</v>
       </c>
       <c r="N11" t="n">
-        <v>0.06245224486320335</v>
+        <v>0.06253009527692119</v>
       </c>
       <c r="O11" t="n">
-        <v>0.07560386739926653</v>
+        <v>0.0755275534117824</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>F50_F59</t>
+          <t>F50_F59_fisiologicos</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01655457148027956</v>
+        <v>-0.01691622133523087</v>
       </c>
       <c r="C12" t="n">
-        <v>1.102208028302038</v>
+        <v>1.140315442651666</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.465965696818451</v>
+        <v>-4.617523559658063</v>
       </c>
       <c r="E12" t="n">
-        <v>3.155128727873384</v>
+        <v>3.258539357698041</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2592790716929455</v>
+        <v>-0.2953675422862823</v>
       </c>
       <c r="G12" t="n">
-        <v>1.487900519459402</v>
+        <v>1.770776017920229</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0200599048354847</v>
+        <v>0.02045299143143492</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02303905703844644</v>
+        <v>0.007295220260115975</v>
       </c>
       <c r="J12" t="n">
-        <v>1.249908920067508</v>
+        <v>1.284415641135829</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001857687352268457</v>
+        <v>0.004990563224063426</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01368010387716044</v>
+        <v>0.006882375561491561</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4636733120359737</v>
+        <v>0.4634906450851241</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4457127095215158</v>
+        <v>0.4455172304843443</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4823576615645759</v>
+        <v>0.4821891576401631</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>F40_F48</t>
+          <t>F40_F48_ansiosos</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02148595520095248</v>
+        <v>-0.02198749932281437</v>
       </c>
       <c r="C13" t="n">
-        <v>1.106062008435703</v>
+        <v>1.14331915524426</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.805809207206539</v>
+        <v>-5.020524788311225</v>
       </c>
       <c r="E13" t="n">
-        <v>2.170405330564763</v>
+        <v>2.196790458405317</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4553036466822096</v>
+        <v>-0.501487112358282</v>
       </c>
       <c r="G13" t="n">
-        <v>1.714041975761713</v>
+        <v>2.242441395086441</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03953950434075763</v>
+        <v>0.03636457573225919</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02390773039945093</v>
+        <v>0.007919365586203098</v>
       </c>
       <c r="J13" t="n">
-        <v>0.948135836005815</v>
+        <v>1.002033082320637</v>
       </c>
       <c r="K13" t="n">
-        <v>7.389524213593849e-07</v>
+        <v>0.0004304963267093148</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000823339131625459</v>
+        <v>0.0003226792606655738</v>
       </c>
       <c r="M13" t="n">
-        <v>3.664655073384121</v>
+        <v>3.662916802394669</v>
       </c>
       <c r="N13" t="n">
-        <v>3.503387727080372</v>
+        <v>3.500212080052991</v>
       </c>
       <c r="O13" t="n">
-        <v>3.83334585066664</v>
+        <v>3.833184731212647</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>F30_F39</t>
+          <t>F30_F39_humor</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01880754928364788</v>
+        <v>-0.01910779006171906</v>
       </c>
       <c r="C14" t="n">
-        <v>1.095059319020325</v>
+        <v>1.095398009885363</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.475344338412787</v>
+        <v>-4.415504342403174</v>
       </c>
       <c r="E14" t="n">
-        <v>3.875840694318431</v>
+        <v>3.754643369153797</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03663271877713174</v>
+        <v>-0.02381193681703809</v>
       </c>
       <c r="G14" t="n">
-        <v>2.622145387879804</v>
+        <v>2.768670331799012</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01243312250406129</v>
+        <v>0.02110240771821639</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02528631327847874</v>
+        <v>0.02735401471308241</v>
       </c>
       <c r="J14" t="n">
-        <v>1.237297169901697</v>
+        <v>1.284614242422954</v>
       </c>
       <c r="K14" t="n">
-        <v>2.310954593049932e-08</v>
+        <v>1.868657347876751e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.006595937298413504</v>
+        <v>0.004091669795969735</v>
       </c>
       <c r="M14" t="n">
-        <v>4.301765034404673</v>
+        <v>4.29971492266674</v>
       </c>
       <c r="N14" t="n">
-        <v>4.184095796292002</v>
+        <v>4.178861818911468</v>
       </c>
       <c r="O14" t="n">
-        <v>4.422743482026907</v>
+        <v>4.424063110327679</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>F20_F29</t>
+          <t>F20_F29_esquizofrenia_etc</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03105870820959822</v>
+        <v>-0.03245617818382122</v>
       </c>
       <c r="C15" t="n">
-        <v>1.301421231963948</v>
+        <v>1.331053652168507</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.75757037817916</v>
+        <v>-2.774819778074036</v>
       </c>
       <c r="E15" t="n">
-        <v>5.999898454250217</v>
+        <v>5.985908195637059</v>
       </c>
       <c r="F15" t="n">
-        <v>1.032388797505195</v>
+        <v>1.074432776973943</v>
       </c>
       <c r="G15" t="n">
-        <v>3.143364563972882</v>
+        <v>3.224158545554085</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1070792365366116</v>
+        <v>0.1470635931291794</v>
       </c>
       <c r="I15" t="n">
-        <v>8.113772687057264e-08</v>
+        <v>3.142760163221681e-08</v>
       </c>
       <c r="J15" t="n">
-        <v>0.884457365323939</v>
+        <v>0.9013311961820371</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0005620887572302592</v>
+        <v>0.009428306763457428</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004167539380658026</v>
+        <v>0.0005203414372213084</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8662714033921668</v>
+        <v>0.8661208602705827</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8027575132605852</v>
+        <v>0.8028995006543974</v>
       </c>
       <c r="O15" t="n">
-        <v>0.9348104900158516</v>
+        <v>0.934320352652402</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>F00_F09</t>
+          <t>F10_F19_uso_substancia</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0171220513330381</v>
+        <v>-0.02509180846117396</v>
       </c>
       <c r="C16" t="n">
-        <v>1.032575113670937</v>
+        <v>1.223875845946586</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.931772645592038</v>
+        <v>-4.298917935228513</v>
       </c>
       <c r="E16" t="n">
-        <v>2.438457937112157</v>
+        <v>7.056941503963849</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6846942161887539</v>
+        <v>1.622408399124156</v>
       </c>
       <c r="G16" t="n">
-        <v>3.282576437445911</v>
+        <v>10.93177532270053</v>
       </c>
       <c r="H16" t="n">
-        <v>0.005067020828246594</v>
+        <v>0.2549283625941884</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1825950782664085</v>
+        <v>1.344572206085637e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>1.302130080581972</v>
+        <v>1.174111245763194</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0003640059742283136</v>
+        <v>0.6935394758939688</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002378665670032319</v>
+        <v>3.630600336475102e-08</v>
       </c>
       <c r="M16" t="n">
-        <v>0.606043049090066</v>
+        <v>0.3252440982649859</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5888667861975406</v>
+        <v>0.2992220854221641</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6237203149494221</v>
+        <v>0.3535291297330426</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
+          <t>F00_F09_transtornos_organicos</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.01704122992693365</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.028701532775299</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-4.902963893343738</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.362850669805744</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.7823812534872778</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.787512719136426</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.01093707768348916</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1973814306784434</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.365144130082062</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.01179550588479356</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0002074645365911062</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.6057426622490719</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.5881757115012654</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.6238342823304492</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-0.01826864653641791</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.090383743179026</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-5.088350891306335</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2.937380873793336</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.4898662704049352</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3.262685697802854</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.02296910544022162</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.0381183193857223</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.14421173473669</v>
-      </c>
-      <c r="K17" t="n">
-        <v>6.354233422379444e-06</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.0003947229899670635</v>
-      </c>
-      <c r="M17" t="n">
-        <v>11.73938767699414</v>
-      </c>
-      <c r="N17" t="n">
-        <v>11.37848929732894</v>
-      </c>
-      <c r="O17" t="n">
-        <v>12.111732887345</v>
+      <c r="B18" t="n">
+        <v>-0.01806621701376522</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.089859507761943</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-5.231274386537651</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.727013857269963</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.6227683029095457</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4.327044332137974</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.02722649875468847</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.04398436764040037</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.240352801441905</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0007220703411454875</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.760933917076766e-05</v>
+      </c>
+      <c r="M18" t="n">
+        <v>11.93884261302937</v>
+      </c>
+      <c r="N18" t="n">
+        <v>11.56855415717776</v>
+      </c>
+      <c r="O18" t="n">
+        <v>12.32098333137411</v>
       </c>
     </row>
   </sheetData>

--- a/diagnostics_plots/diagnostics_results.xlsx
+++ b/diagnostics_plots/diagnostics_results.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01792799448686878</v>
+        <v>-0.01991708187681684</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9974868299434683</v>
+        <v>1.046231976479179</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.558047586702233</v>
+        <v>-4.412895753151877</v>
       </c>
       <c r="E2" t="n">
-        <v>2.063330415344418</v>
+        <v>2.005100290025854</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7844726127945557</v>
+        <v>-0.7331293647820495</v>
       </c>
       <c r="G2" t="n">
-        <v>2.870475541420968</v>
+        <v>2.617968446288168</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001073398162103352</v>
+        <v>0.01227205736500414</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3394464380437416</v>
+        <v>0.1327178490746302</v>
       </c>
       <c r="J2" t="n">
-        <v>1.253615107325677</v>
+        <v>1.370838663667552</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0012317940361321</v>
+        <v>0.006501202167550562</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0009333133410336916</v>
+        <v>0.003241722634002479</v>
       </c>
       <c r="M2" t="n">
-        <v>24.70470667325907</v>
+        <v>24.40611593619394</v>
       </c>
       <c r="N2" t="n">
-        <v>24.02544833918019</v>
+        <v>23.04584807367547</v>
       </c>
       <c r="O2" t="n">
-        <v>25.40316930595923</v>
+        <v>25.84667282309048</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.03188250724966488</v>
+        <v>-0.01847468665630926</v>
       </c>
       <c r="C3" t="n">
-        <v>1.412491444869042</v>
+        <v>1.097032416560086</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.642220744277191</v>
+        <v>-5.538634827783436</v>
       </c>
       <c r="E3" t="n">
-        <v>7.332752780252472</v>
+        <v>2.385683479194371</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6737703202951771</v>
+        <v>-1.57104774612434</v>
       </c>
       <c r="G3" t="n">
-        <v>8.208140814841141</v>
+        <v>7.165770113074821</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09057521161326058</v>
+        <v>0.1287407533719616</v>
       </c>
       <c r="I3" t="n">
-        <v>1.634136159722743e-10</v>
+        <v>0.06170813913689255</v>
       </c>
       <c r="J3" t="n">
-        <v>1.003483302587721</v>
+        <v>1.359392830522496</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1291453550535961</v>
+        <v>4.559735530329318e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>3.581676909307485e-07</v>
+        <v>1.543561175530076e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>11.76094531262774</v>
+        <v>17.83763314489522</v>
       </c>
       <c r="N3" t="n">
-        <v>10.82059944087482</v>
+        <v>17.38979647203097</v>
       </c>
       <c r="O3" t="n">
-        <v>12.78301035006592</v>
+        <v>18.29700288462915</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03652997789923258</v>
+        <v>-0.03051626546461056</v>
       </c>
       <c r="C4" t="n">
-        <v>1.299595471819949</v>
+        <v>1.224216266501382</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.040465054099983</v>
+        <v>-3.09867664042295</v>
       </c>
       <c r="E4" t="n">
-        <v>4.672380090028386</v>
+        <v>4.818772791160135</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3863022007559735</v>
+        <v>0.6450551906864819</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8672665398561659</v>
+        <v>2.723691810028045</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003732763189428549</v>
+        <v>0.01242848661145276</v>
       </c>
       <c r="I4" t="n">
-        <v>1.060458349577686e-06</v>
+        <v>0.000209068599788087</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8300272800752442</v>
+        <v>0.983215682384563</v>
       </c>
       <c r="K4" t="n">
-        <v>1.049979978829325e-08</v>
+        <v>7.12815108922752e-08</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09616559788409784</v>
+        <v>0.004064046629141119</v>
       </c>
       <c r="M4" t="n">
-        <v>5.491227774060237</v>
+        <v>9.110935148803463</v>
       </c>
       <c r="N4" t="n">
-        <v>5.091025202703913</v>
+        <v>8.709420912076208</v>
       </c>
       <c r="O4" t="n">
-        <v>5.922890040024857</v>
+        <v>9.530959649751747</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02353783971595957</v>
+        <v>-0.02323526930351448</v>
       </c>
       <c r="C5" t="n">
-        <v>1.155313423527933</v>
+        <v>1.151015205389114</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.775931125287209</v>
+        <v>-2.802585305034506</v>
       </c>
       <c r="E5" t="n">
-        <v>3.051409099643031</v>
+        <v>2.931914615658077</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1374514173480634</v>
+        <v>0.002699966115869296</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3790752917009304</v>
+        <v>-0.006135590394850343</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04341780649101473</v>
+        <v>0.01848664813055149</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003010260844859114</v>
+        <v>0.006671654589754605</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9899399359827595</v>
+        <v>1.021210697170954</v>
       </c>
       <c r="K5" t="n">
-        <v>8.787510884783137e-12</v>
+        <v>4.101651157349389e-09</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4825900102807197</v>
+        <v>0.5797002505525803</v>
       </c>
       <c r="M5" t="n">
-        <v>5.744603295637656</v>
+        <v>9.62498084168832</v>
       </c>
       <c r="N5" t="n">
-        <v>5.508708245966845</v>
+        <v>9.093667824826245</v>
       </c>
       <c r="O5" t="n">
-        <v>5.990599892163837</v>
+        <v>10.18733672566683</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.03470876770778158</v>
+        <v>-0.02400668568855513</v>
       </c>
       <c r="C6" t="n">
-        <v>1.187558526182789</v>
+        <v>1.032210274281632</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.23067829708229</v>
+        <v>-4.551192162063683</v>
       </c>
       <c r="E6" t="n">
-        <v>2.511737843983959</v>
+        <v>2.553697254120914</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1990168128499561</v>
+        <v>-0.9920892552671525</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6040326148717163</v>
+        <v>4.072772735128689</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4713548474721821</v>
+        <v>0.1484475331645318</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001182916456475613</v>
+        <v>0.1978507810783388</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8219886899910041</v>
+        <v>1.318082316772171</v>
       </c>
       <c r="K6" t="n">
-        <v>5.973964112693152e-23</v>
+        <v>2.188661914286276e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3377061067756018</v>
+        <v>0.0006224510529201485</v>
       </c>
       <c r="M6" t="n">
-        <v>10.81447699973163</v>
+        <v>20.0892962764136</v>
       </c>
       <c r="N6" t="n">
-        <v>9.983935582970927</v>
+        <v>19.51800201866078</v>
       </c>
       <c r="O6" t="n">
-        <v>11.71410931148282</v>
+        <v>20.67731238554389</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.0466954305064931</v>
+        <v>-0.0298718425008661</v>
       </c>
       <c r="C7" t="n">
-        <v>1.351194110570086</v>
+        <v>1.109259825869614</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.360118105132961</v>
+        <v>-2.119049741515689</v>
       </c>
       <c r="E7" t="n">
-        <v>4.647107943891639</v>
+        <v>3.19869192556585</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6695471568561412</v>
+        <v>0.5108018293691758</v>
       </c>
       <c r="G7" t="n">
-        <v>1.250243162949191</v>
+        <v>0.3373188354310575</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01063368519153561</v>
+        <v>0.0002164762407941156</v>
       </c>
       <c r="I7" t="n">
-        <v>1.052606957152591e-08</v>
+        <v>0.01471365987348139</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7801310651865491</v>
+        <v>0.8518543841184878</v>
       </c>
       <c r="K7" t="n">
-        <v>9.209779455364778e-25</v>
+        <v>5.188481253710774e-26</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02589604035749075</v>
+        <v>0.1642677855542052</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1297290498866709</v>
+        <v>0.2556444718893028</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1145490302795485</v>
+        <v>0.2376339268601675</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1469207233219424</v>
+        <v>0.2750200565680054</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02898408293238081</v>
+        <v>-0.02656003745209532</v>
       </c>
       <c r="C8" t="n">
-        <v>1.136705388421409</v>
+        <v>1.124211008472261</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.755996000933685</v>
+        <v>-4.903139708318314</v>
       </c>
       <c r="E8" t="n">
-        <v>2.475619768301459</v>
+        <v>2.3729324633492</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6290927143241668</v>
+        <v>-1.212954644576331</v>
       </c>
       <c r="G8" t="n">
-        <v>2.130419041392838</v>
+        <v>3.46301387775361</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1407502761345326</v>
+        <v>0.08610736731903793</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01266720021403323</v>
+        <v>0.03488789208635779</v>
       </c>
       <c r="J8" t="n">
-        <v>1.092076592575162</v>
+        <v>1.380736741262365</v>
       </c>
       <c r="K8" t="n">
-        <v>5.115724143829816e-13</v>
+        <v>3.307912697353023e-09</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01364974422688222</v>
+        <v>0.0008889487379044021</v>
       </c>
       <c r="M8" t="n">
-        <v>0.713169472328755</v>
+        <v>0.9250628007270697</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6724132805700425</v>
+        <v>0.8698432740901295</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7563959709875109</v>
+        <v>0.983787781981909</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.05898805461234696</v>
+        <v>-0.0635984773042028</v>
       </c>
       <c r="C9" t="n">
-        <v>1.570818965499819</v>
+        <v>1.635151060610014</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.77043652794581</v>
+        <v>-5.788301016985595</v>
       </c>
       <c r="E9" t="n">
-        <v>3.990348384220146</v>
+        <v>4.08758524476594</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7985376593625874</v>
+        <v>-0.7323171535580656</v>
       </c>
       <c r="G9" t="n">
-        <v>1.380622029819596</v>
+        <v>1.351568059229594</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0007827626551942335</v>
+        <v>0.007518266151878015</v>
       </c>
       <c r="I9" t="n">
-        <v>9.814371537686384e-14</v>
+        <v>2.90878432451791e-13</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9683234617822982</v>
+        <v>0.8829710874519163</v>
       </c>
       <c r="K9" t="n">
-        <v>8.198369261675125e-14</v>
+        <v>5.512204444385288e-11</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0005470661807442437</v>
+        <v>0.01015919161055706</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5949673678982401</v>
+        <v>0.8544132945215381</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5562966420730172</v>
+        <v>0.7800222800283992</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6363262728760046</v>
+        <v>0.9358990076906135</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.02620895479231635</v>
+        <v>-0.02431350192918382</v>
       </c>
       <c r="C10" t="n">
-        <v>1.122496313570058</v>
+        <v>1.106024299413817</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.223990842111149</v>
+        <v>-5.251972879328236</v>
       </c>
       <c r="E10" t="n">
-        <v>2.970482034544549</v>
+        <v>3.146974009226593</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6289119335276004</v>
+        <v>-0.9612108284766619</v>
       </c>
       <c r="G10" t="n">
-        <v>4.087211821293528</v>
+        <v>6.253881066301474</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06838708863967372</v>
+        <v>0.09506573343939942</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01867826893681068</v>
+        <v>0.04264779385771278</v>
       </c>
       <c r="J10" t="n">
-        <v>1.210157518711104</v>
+        <v>1.570294565574028</v>
       </c>
       <c r="K10" t="n">
-        <v>0.003944576176019568</v>
+        <v>0.1653865061274014</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001891843012030884</v>
+        <v>1.84740790118838e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2628996508429042</v>
+        <v>0.3832718932615372</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2464391793486502</v>
+        <v>0.3738541584895023</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2804595705763923</v>
+        <v>0.3929268695520154</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02716280534115468</v>
+        <v>-0.01859839170250177</v>
       </c>
       <c r="C11" t="n">
-        <v>1.26246058624479</v>
+        <v>1.043065244525941</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.710073417942591</v>
+        <v>-4.710354879470915</v>
       </c>
       <c r="E11" t="n">
-        <v>4.782748650813896</v>
+        <v>2.161663347901843</v>
       </c>
       <c r="F11" t="n">
-        <v>0.153556921399788</v>
+        <v>-1.315269372049004</v>
       </c>
       <c r="G11" t="n">
-        <v>3.164777791789954</v>
+        <v>4.406747719890349</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005321941847992875</v>
+        <v>0.2412791401659967</v>
       </c>
       <c r="I11" t="n">
-        <v>1.547289440517741e-05</v>
+        <v>0.1669537259492445</v>
       </c>
       <c r="J11" t="n">
-        <v>1.081589892667073</v>
+        <v>1.484566708111694</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001551031068925343</v>
+        <v>0.2428421106031932</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0006254710557686861</v>
+        <v>0.0002625374189003798</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06872223156207535</v>
+        <v>0.1119678526716698</v>
       </c>
       <c r="N11" t="n">
-        <v>0.06253009527692119</v>
+        <v>0.1065557803130581</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0755275534117824</v>
+        <v>0.1176548094816815</v>
       </c>
     </row>
     <row r="12">
@@ -1002,46 +1002,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01691622133523087</v>
+        <v>-0.01503070628557976</v>
       </c>
       <c r="C12" t="n">
-        <v>1.140315442651666</v>
+        <v>1.052938374998533</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.617523559658063</v>
+        <v>-4.565452339351958</v>
       </c>
       <c r="E12" t="n">
-        <v>3.258539357698041</v>
+        <v>2.026913975110334</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2953675422862823</v>
+        <v>-0.8812695343645469</v>
       </c>
       <c r="G12" t="n">
-        <v>1.770776017920229</v>
+        <v>3.018646184642901</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02045299143143492</v>
+        <v>0.08041101639611913</v>
       </c>
       <c r="I12" t="n">
-        <v>0.007295220260115975</v>
+        <v>0.1155536382769253</v>
       </c>
       <c r="J12" t="n">
-        <v>1.284415641135829</v>
+        <v>1.438060343774393</v>
       </c>
       <c r="K12" t="n">
-        <v>0.004990563224063426</v>
+        <v>0.04977091810239298</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006882375561491561</v>
+        <v>0.0008688854518813789</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4634906450851241</v>
+        <v>0.5973944246870238</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4455172304843443</v>
+        <v>0.5733610474895695</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4821891576401631</v>
+        <v>0.6224352006640848</v>
       </c>
     </row>
     <row r="13">
@@ -1051,46 +1051,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02198749932281437</v>
+        <v>-0.01992918875998865</v>
       </c>
       <c r="C13" t="n">
-        <v>1.14331915524426</v>
+        <v>1.095903343290533</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.020524788311225</v>
+        <v>-4.91396445977544</v>
       </c>
       <c r="E13" t="n">
-        <v>2.196790458405317</v>
+        <v>2.148556904935801</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.501487112358282</v>
+        <v>-0.9385062233631158</v>
       </c>
       <c r="G13" t="n">
-        <v>2.242441395086441</v>
+        <v>3.780834110556435</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03636457573225919</v>
+        <v>0.09958813218081283</v>
       </c>
       <c r="I13" t="n">
-        <v>0.007919365586203098</v>
+        <v>0.05020521086541518</v>
       </c>
       <c r="J13" t="n">
-        <v>1.002033082320637</v>
+        <v>1.196227860532557</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0004304963267093148</v>
+        <v>1.106409697490873e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0003226792606655738</v>
+        <v>0.0007943109053549694</v>
       </c>
       <c r="M13" t="n">
-        <v>3.662916802394669</v>
+        <v>5.881004028282813</v>
       </c>
       <c r="N13" t="n">
-        <v>3.500212080052991</v>
+        <v>5.639036834690233</v>
       </c>
       <c r="O13" t="n">
-        <v>3.833184731212647</v>
+        <v>6.133353867793734</v>
       </c>
     </row>
     <row r="14">
@@ -1100,46 +1100,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01910779006171906</v>
+        <v>-0.02006967341877504</v>
       </c>
       <c r="C14" t="n">
-        <v>1.095398009885363</v>
+        <v>1.119680691676834</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.415504342403174</v>
+        <v>-4.301218599504339</v>
       </c>
       <c r="E14" t="n">
-        <v>3.754643369153797</v>
+        <v>3.705243972158303</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02381193681703809</v>
+        <v>-0.1924902047391379</v>
       </c>
       <c r="G14" t="n">
-        <v>2.768670331799012</v>
+        <v>2.823116950970863</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02110240771821639</v>
+        <v>0.05699533332089702</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02735401471308241</v>
+        <v>0.01857643137615028</v>
       </c>
       <c r="J14" t="n">
-        <v>1.284614242422954</v>
+        <v>1.351622447866226</v>
       </c>
       <c r="K14" t="n">
-        <v>1.868657347876751e-06</v>
+        <v>5.439043912195341e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004091669795969735</v>
+        <v>0.01099719281076109</v>
       </c>
       <c r="M14" t="n">
-        <v>4.29971492266674</v>
+        <v>5.024322557749113</v>
       </c>
       <c r="N14" t="n">
-        <v>4.178861818911468</v>
+        <v>4.862560733068962</v>
       </c>
       <c r="O14" t="n">
-        <v>4.424063110327679</v>
+        <v>5.19146568034209</v>
       </c>
     </row>
     <row r="15">
@@ -1149,46 +1149,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03245617818382122</v>
+        <v>-0.02097181249846634</v>
       </c>
       <c r="C15" t="n">
-        <v>1.331053652168507</v>
+        <v>1.141356242271633</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.774819778074036</v>
+        <v>-2.932823662020569</v>
       </c>
       <c r="E15" t="n">
-        <v>5.985908195637059</v>
+        <v>3.777135866924358</v>
       </c>
       <c r="F15" t="n">
-        <v>1.074432776973943</v>
+        <v>0.4311321928919779</v>
       </c>
       <c r="G15" t="n">
-        <v>3.224158545554085</v>
+        <v>0.7716867449651392</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1470635931291794</v>
+        <v>0.1873337398431726</v>
       </c>
       <c r="I15" t="n">
-        <v>3.142760163221681e-08</v>
+        <v>0.00673301310731067</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9013311961820371</v>
+        <v>0.9741930183423165</v>
       </c>
       <c r="K15" t="n">
-        <v>0.009428306763457428</v>
+        <v>8.213295118947324e-13</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0005203414372213084</v>
+        <v>0.2592005750505645</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8661208602705827</v>
+        <v>1.288217151138421</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8028995006543974</v>
+        <v>1.211180386372427</v>
       </c>
       <c r="O15" t="n">
-        <v>0.934320352652402</v>
+        <v>1.370153816193739</v>
       </c>
     </row>
     <row r="16">
@@ -1198,46 +1198,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02509180846117396</v>
+        <v>-0.01698991451160172</v>
       </c>
       <c r="C16" t="n">
-        <v>1.223875845946586</v>
+        <v>1.001935143570556</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.298917935228513</v>
+        <v>-4.182567437736556</v>
       </c>
       <c r="E16" t="n">
-        <v>7.056941503963849</v>
+        <v>2.443740402158695</v>
       </c>
       <c r="F16" t="n">
-        <v>1.622408399124156</v>
+        <v>-0.7143015873370265</v>
       </c>
       <c r="G16" t="n">
-        <v>10.93177532270053</v>
+        <v>3.092389349627182</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2549283625941884</v>
+        <v>0.1165644086914986</v>
       </c>
       <c r="I16" t="n">
-        <v>1.344572206085637e-05</v>
+        <v>0.2669918972351792</v>
       </c>
       <c r="J16" t="n">
-        <v>1.174111245763194</v>
+        <v>1.719800247161605</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6935394758939688</v>
+        <v>0.1081318131466885</v>
       </c>
       <c r="L16" t="n">
-        <v>3.630600336475102e-08</v>
+        <v>0.005306306743936597</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3252440982649859</v>
+        <v>0.378948771943751</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2992220854221641</v>
+        <v>0.3694144866612475</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3535291297330426</v>
+        <v>0.3887291293190676</v>
       </c>
     </row>
     <row r="17">
@@ -1247,46 +1247,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01704122992693365</v>
+        <v>-0.01782685582433807</v>
       </c>
       <c r="C17" t="n">
-        <v>1.028701532775299</v>
+        <v>1.059559859248703</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.902963893343738</v>
+        <v>-4.893632324612322</v>
       </c>
       <c r="E17" t="n">
-        <v>2.362850669805744</v>
+        <v>2.268524540027319</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7823812534872778</v>
+        <v>-1.054438862193885</v>
       </c>
       <c r="G17" t="n">
-        <v>3.787512719136426</v>
+        <v>4.553660237975721</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01093707768348916</v>
+        <v>0.03798875152794293</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1973814306784434</v>
+        <v>0.1115710631016272</v>
       </c>
       <c r="J17" t="n">
-        <v>1.365144130082062</v>
+        <v>1.459400258129197</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01179550588479356</v>
+        <v>0.01776368679602125</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002074645365911062</v>
+        <v>0.0003570784962888278</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6057426622490719</v>
+        <v>0.8310440994141858</v>
       </c>
       <c r="N17" t="n">
-        <v>0.5881757115012654</v>
+        <v>0.7977558725639097</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6238342823304492</v>
+        <v>0.865721355270634</v>
       </c>
     </row>
     <row r="18">
@@ -1296,46 +1296,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01806621701376522</v>
+        <v>-0.01816538314447495</v>
       </c>
       <c r="C18" t="n">
-        <v>1.089859507761943</v>
+        <v>1.095360419721561</v>
       </c>
       <c r="D18" t="n">
-        <v>-5.231274386537651</v>
+        <v>-5.101849728374638</v>
       </c>
       <c r="E18" t="n">
-        <v>2.727013857269963</v>
+        <v>2.724443027202007</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6227683029095457</v>
+        <v>-1.016986525597955</v>
       </c>
       <c r="G18" t="n">
-        <v>4.327044332137974</v>
+        <v>4.984972831142743</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02722649875468847</v>
+        <v>0.09512669948783321</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04398436764040037</v>
+        <v>0.05040753913716201</v>
       </c>
       <c r="J18" t="n">
-        <v>1.240352801441905</v>
+        <v>1.355934213252006</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0007220703411454875</v>
+        <v>6.923063948332682e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>3.760933917076766e-05</v>
+        <v>0.0002976418106567947</v>
       </c>
       <c r="M18" t="n">
-        <v>11.93884261302937</v>
+        <v>16.50096370673642</v>
       </c>
       <c r="N18" t="n">
-        <v>11.56855415717776</v>
+        <v>15.99582324405673</v>
       </c>
       <c r="O18" t="n">
-        <v>12.32098333137411</v>
+        <v>17.02205626410628</v>
       </c>
     </row>
   </sheetData>
